--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -36,7 +36,7 @@
     <t>文件路径</t>
   </si>
   <si>
-    <t>音量(建议范围:-80到+20)</t>
+    <t>音量(范围0 - 1)</t>
   </si>
   <si>
     <t>备注</t>
@@ -54,15 +54,27 @@
     <t>res://resource/sound/sfx/Shooting0001.ogg</t>
   </si>
   <si>
+    <t>手枪</t>
+  </si>
+  <si>
     <t>shooting0002</t>
   </si>
   <si>
+    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+  </si>
+  <si>
+    <t>步枪(消音)</t>
+  </si>
+  <si>
     <t>shooting0003</t>
   </si>
   <si>
     <t>res://resource/sound/sfx/Shooting0003.mp3</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
     <t>reloading0001</t>
   </si>
   <si>
@@ -75,10 +87,43 @@
     <t>res://resource/sound/sfx/Reloading0002.ogg</t>
   </si>
   <si>
-    <t>reloading0004</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/Reloading0004.ogg</t>
+    <t>霰弹枪单独装弹</t>
+  </si>
+  <si>
+    <t>equip0001</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0001.ogg</t>
+  </si>
+  <si>
+    <t>equip0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0002.ogg</t>
+  </si>
+  <si>
+    <t>equip0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0003.ogg</t>
+  </si>
+  <si>
+    <t>equip0004</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0004.ogg</t>
+  </si>
+  <si>
+    <t>equip0005</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0005.ogg</t>
+  </si>
+  <si>
+    <t>equip0006</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0006.ogg</t>
   </si>
 </sst>
 </file>
@@ -1055,21 +1100,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.9166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.0185185185185" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.9537037037037" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1115,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:3">
+    <row r="4" ht="17" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1123,62 +1168,143 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="6" ht="14" customHeight="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14" customHeight="1"/>
+    <row r="8" ht="13" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" ht="14" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
+    <row r="9" ht="13" customHeight="1" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="13" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
+    <row r="10" ht="13" customHeight="1"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>霰弹枪单独装弹</t>
+  </si>
+  <si>
+    <t>reloadBegin0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading_begin0002.ogg</t>
+  </si>
+  <si>
+    <t>reloadFinish0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading_finish0002.ogg</t>
   </si>
   <si>
     <t>equip0001</t>
@@ -1100,14 +1112,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1232,7 +1244,7 @@
       </c>
     </row>
     <row r="10" ht="13" customHeight="1"/>
-    <row r="11" spans="1:3">
+    <row r="11" ht="13" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1242,68 +1254,98 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="13" customHeight="1"/>
+    <row r="13" ht="13" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="14" ht="13" customHeight="1"/>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -75,10 +75,16 @@
     <t>霰弹枪</t>
   </si>
   <si>
+    <t>shooting0004</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Shooting0004.ogg</t>
+  </si>
+  <si>
     <t>reloading0001</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading0001.mp3</t>
+    <t>res://resource/sound/sfx/Reloading0001.ogg</t>
   </si>
   <si>
     <t>reloading0002</t>
@@ -96,6 +102,29 @@
     <t>res://resource/sound/sfx/Reloading_begin0002.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading_begin0003.ogg</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reloadBegin0004</t>
+    </r>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading_begin0004.ogg</t>
+  </si>
+  <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
@@ -136,6 +165,63 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/Equip0006.ogg</t>
+  </si>
+  <si>
+    <t>equip0007</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0007.ogg</t>
+  </si>
+  <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>equip0008</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0008.ogg</t>
+  </si>
+  <si>
+    <t>equip0009</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0009.ogg</t>
+  </si>
+  <si>
+    <t>equip0010</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0010.ogg</t>
+  </si>
+  <si>
+    <t>equip0011</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0011.ogg</t>
+  </si>
+  <si>
+    <t>equip0012</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0012.ogg</t>
+  </si>
+  <si>
+    <t>equip0013</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0013.ogg</t>
+  </si>
+  <si>
+    <t>equip0014</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0014.ogg</t>
+  </si>
+  <si>
+    <t>equip0015</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Equip0015.ogg</t>
   </si>
 </sst>
 </file>
@@ -148,13 +234,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -609,10 +701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,34 +713,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,98 +749,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,6 +854,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1112,14 +1207,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1214,21 +1309,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1"/>
-    <row r="8" ht="13" customHeight="1" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="7" ht="14" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="8" ht="14" customHeight="1"/>
     <row r="9" ht="13" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>21</v>
@@ -1240,113 +1335,281 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" ht="13" customHeight="1"/>
-    <row r="11" ht="13" customHeight="1" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="11" ht="13" customHeight="1"/>
+    <row r="12" ht="13" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="13" customHeight="1"/>
     <row r="13" ht="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="13" customHeight="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1"/>
+    <row r="16" ht="13" customHeight="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="13" customHeight="1"/>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="17" ht="13" customHeight="1"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -51,7 +51,7 @@
     <t>shooting0001</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0001.ogg</t>
+    <t>res://resource/sound/sfx/shooting/Shooting0001.ogg</t>
   </si>
   <si>
     <t>手枪</t>
@@ -60,7 +60,7 @@
     <t>shooting0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+    <t>res://resource/sound/sfx/shooting/Shooting0002.ogg</t>
   </si>
   <si>
     <t>步枪(消音)</t>
@@ -69,7 +69,7 @@
     <t>shooting0003</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0003.mp3</t>
+    <t>res://resource/sound/sfx/shooting/Shooting0003.ogg</t>
   </si>
   <si>
     <t>霰弹枪</t>
@@ -78,19 +78,52 @@
     <t>shooting0004</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0004.ogg</t>
+    <t>res://resource/sound/sfx/shooting/Shooting0004.ogg</t>
+  </si>
+  <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0005.ogg</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>shooting0006</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0006.ogg</t>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
+    <t>shooting0007</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0007.ogg</t>
+  </si>
+  <si>
+    <t>shooting0008</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0008.ogg</t>
+  </si>
+  <si>
+    <t>狙击枪</t>
   </si>
   <si>
     <t>reloading0001</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading0001.ogg</t>
+    <t>res://resource/sound/sfx/reloading/Reloading0001.ogg</t>
   </si>
   <si>
     <t>reloading0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading0002.ogg</t>
+    <t>res://resource/sound/sfx/reloading/Reloading0002.ogg</t>
   </si>
   <si>
     <t>霰弹枪单独装弹</t>
@@ -99,16 +132,13 @@
     <t>reloadBegin0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading_begin0002.ogg</t>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0002.ogg</t>
   </si>
   <si>
     <t>reloadBegin0003</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading_begin0003.ogg</t>
-  </si>
-  <si>
-    <t>步枪</t>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0003.ogg</t>
   </si>
   <si>
     <r>
@@ -122,106 +152,121 @@
     </r>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading_begin0004.ogg</t>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0004.ogg</t>
+  </si>
+  <si>
+    <t>reloadBegin0005</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0005.ogg</t>
+  </si>
+  <si>
+    <t>reloadBegin0009</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0009.ogg</t>
   </si>
   <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading_finish0002.ogg</t>
+    <t>res://resource/sound/sfx/reloading/Reloading_finish0002.ogg</t>
   </si>
   <si>
     <t>equip0001</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0001.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0001.ogg</t>
   </si>
   <si>
     <t>equip0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0002.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0002.ogg</t>
   </si>
   <si>
     <t>equip0003</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0003.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0003.ogg</t>
   </si>
   <si>
     <t>equip0004</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0004.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0004.ogg</t>
   </si>
   <si>
     <t>equip0005</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0005.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0005.ogg</t>
   </si>
   <si>
     <t>equip0006</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0006.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0006.ogg</t>
   </si>
   <si>
     <t>equip0007</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0007.ogg</t>
-  </si>
-  <si>
-    <t>狙击枪</t>
+    <t>res://resource/sound/sfx/equip/Equip0007.ogg</t>
   </si>
   <si>
     <t>equip0008</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0008.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0008.ogg</t>
   </si>
   <si>
     <t>equip0009</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0009.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0009.ogg</t>
   </si>
   <si>
     <t>equip0010</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0010.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0010.ogg</t>
   </si>
   <si>
     <t>equip0011</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0011.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0011.ogg</t>
   </si>
   <si>
     <t>equip0012</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0012.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0012.ogg</t>
   </si>
   <si>
     <t>equip0013</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0013.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0013.ogg</t>
   </si>
   <si>
     <t>equip0014</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0014.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0014.ogg</t>
   </si>
   <si>
     <t>equip0015</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Equip0015.ogg</t>
+    <t>res://resource/sound/sfx/equip/Equip0015.ogg</t>
+  </si>
+  <si>
+    <t>equip0016</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/equip/Equip0016.ogg</t>
   </si>
 </sst>
 </file>
@@ -1207,14 +1252,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1303,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1323,85 +1368,98 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1"/>
-    <row r="9" ht="13" customHeight="1" spans="1:4">
+    <row r="8" ht="14" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="14" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="13" customHeight="1"/>
-    <row r="12" ht="13" customHeight="1" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="14" customHeight="1"/>
     <row r="13" ht="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1"/>
     <row r="16" ht="13" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1410,60 +1468,69 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="13" customHeight="1"/>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
+    <row r="17" ht="13" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="13" customHeight="1" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="13" customHeight="1" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="13" customHeight="1" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="13" customHeight="1"/>
+    <row r="22" ht="13" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1472,144 +1539,220 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="23" ht="13" customHeight="1"/>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -173,100 +173,100 @@
     <t>res://resource/sound/sfx/reloading/Reloading_finish0002.ogg</t>
   </si>
   <si>
-    <t>equip0001</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0001.ogg</t>
-  </si>
-  <si>
-    <t>equip0002</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0002.ogg</t>
-  </si>
-  <si>
-    <t>equip0003</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0003.ogg</t>
-  </si>
-  <si>
-    <t>equip0004</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0004.ogg</t>
-  </si>
-  <si>
-    <t>equip0005</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0005.ogg</t>
-  </si>
-  <si>
-    <t>equip0006</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0006.ogg</t>
-  </si>
-  <si>
-    <t>equip0007</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0007.ogg</t>
-  </si>
-  <si>
-    <t>equip0008</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0008.ogg</t>
-  </si>
-  <si>
-    <t>equip0009</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0009.ogg</t>
-  </si>
-  <si>
-    <t>equip0010</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0010.ogg</t>
-  </si>
-  <si>
-    <t>equip0011</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0011.ogg</t>
-  </si>
-  <si>
-    <t>equip0012</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0012.ogg</t>
-  </si>
-  <si>
-    <t>equip0013</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0013.ogg</t>
-  </si>
-  <si>
-    <t>equip0014</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0014.ogg</t>
-  </si>
-  <si>
-    <t>equip0015</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0015.ogg</t>
-  </si>
-  <si>
-    <t>equip0016</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/equip/Equip0016.ogg</t>
+    <t>beLoaded0001</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0001.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0002.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0003.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0004</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0004.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0005</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0005.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0006</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0006.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0007</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0007.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0008</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0008.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0009</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0009.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0010</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0010.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0011</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0011.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0012</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0012.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0013</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0013.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0014</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0014.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0015</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0015.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0016</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0016.ogg</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1259,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="15600"/>
+    <workbookView windowWidth="24930" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -161,12 +161,24 @@
     <t>res://resource/sound/sfx/reloading/Reloading_begin0005.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0006</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0006.ogg</t>
+  </si>
+  <si>
     <t>reloadBegin0009</t>
   </si>
   <si>
     <t>res://resource/sound/sfx/reloading/Reloading_begin0009.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0010</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0010.ogg</t>
+  </si>
+  <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
@@ -267,6 +279,12 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/beLoaded/BeLoaded0016.ogg</t>
+  </si>
+  <si>
+    <t>beLoaded0017</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/beLoaded/BeLoaded0017.ogg</t>
   </si>
 </sst>
 </file>
@@ -1252,22 +1270,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.9166666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0185185185185" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9537037037037" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.9181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.0181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.9545454545455" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
@@ -1340,7 +1358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1" spans="1:4">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1" spans="1:4">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1" spans="1:4">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:4">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1" spans="1:4">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1"/>
+    <row r="12" customHeight="1"/>
     <row r="13" ht="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>32</v>
@@ -1510,7 +1528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" ht="13" customHeight="1" spans="1:4">
+    <row r="20" ht="13" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1520,239 +1538,278 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="21" ht="13" customHeight="1" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="13" customHeight="1"/>
-    <row r="22" ht="13" customHeight="1" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
+    <row r="22" ht="13" customHeight="1" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="23" ht="13" customHeight="1" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" ht="13" customHeight="1" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" ht="13" customHeight="1"/>
+    <row r="26" ht="13" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="13" customHeight="1"/>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="27" ht="13" customHeight="1"/>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" s="2">
         <v>1</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +1828,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1788,7 +1845,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12270"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>狙击枪</t>
+  </si>
+  <si>
+    <t>shooting0009</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0009.ogg</t>
+  </si>
+  <si>
+    <t>激光武器</t>
+  </si>
+  <si>
+    <t>shooting0010</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0010.ogg</t>
   </si>
   <si>
     <t>reloading0001</t>
@@ -179,10 +194,22 @@
     <t>res://resource/sound/sfx/reloading/Reloading_begin0010.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0011</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0011.ogg</t>
+  </si>
+  <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
     <t>res://resource/sound/sfx/reloading/Reloading_finish0002.ogg</t>
+  </si>
+  <si>
+    <t>reloadFinish0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_finish0003.ogg</t>
   </si>
   <si>
     <t>beLoaded0001</t>
@@ -290,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -312,34 +339,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -356,6 +355,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -365,41 +403,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,11 +456,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -465,49 +492,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,121 +630,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,21 +683,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,6 +715,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,148 +788,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,52 +952,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1270,22 +1297,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.9181818181818" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0181818181818" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.9166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.0166666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.9583333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
@@ -1358,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" ht="14" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" ht="14" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1386,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" ht="14" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" ht="14" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" ht="14" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" ht="14" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,315 +1469,326 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customHeight="1"/>
-    <row r="13" ht="13" customHeight="1" spans="1:4">
+    <row r="12" ht="14" customHeight="1" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1"/>
+    <row r="15" ht="13" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="13" customHeight="1" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1"/>
     <row r="16" ht="13" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="13" customHeight="1"/>
+    <row r="18" ht="13" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="13" customHeight="1" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    <row r="19" ht="13" customHeight="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    <row r="20" ht="13" customHeight="1" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" ht="13" customHeight="1" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="13" customHeight="1" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" ht="13" customHeight="1" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="13" customHeight="1"/>
-    <row r="26" ht="13" customHeight="1" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="23" ht="13" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="13" customHeight="1" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="13" customHeight="1" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" ht="13" customHeight="1" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" ht="13" customHeight="1"/>
+    <row r="28" ht="13" customHeight="1" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="13" customHeight="1"/>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="13" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1"/>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -1761,54 +1799,96 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="2">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1828,7 +1908,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1845,7 +1925,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/shooting/Shooting0010.ogg</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/shooting/Shooting0011.ogg</t>
+  </si>
+  <si>
+    <t>榴弹发射器</t>
   </si>
   <si>
     <t>reloading0001</t>
@@ -312,6 +321,36 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/beLoaded/BeLoaded0017.ogg</t>
+  </si>
+  <si>
+    <t>explosion0001</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/explosion/Explosion0001.ogg</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>explosion0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/explosion/Explosion0002.ogg</t>
+  </si>
+  <si>
+    <t>explosion0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/explosion/Explosion0003.ogg</t>
+  </si>
+  <si>
+    <t>collision0001</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/collision/Collision0001.ogg</t>
+  </si>
+  <si>
+    <t>碰撞</t>
   </si>
 </sst>
 </file>
@@ -1297,14 +1336,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1393,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1497,70 +1536,70 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="14" customHeight="1"/>
-    <row r="15" ht="13" customHeight="1" spans="1:4">
-      <c r="A15" s="1" t="s">
+    <row r="14" ht="14" customHeight="1" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="C14" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1"/>
     <row r="16" ht="13" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="13" customHeight="1"/>
-    <row r="18" ht="13" customHeight="1" spans="1:4">
-      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="13" customHeight="1" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="13" customHeight="1"/>
     <row r="19" ht="13" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13" customHeight="1" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
+      <c r="A20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1571,118 +1610,121 @@
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="13" customHeight="1" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" ht="13" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="13" customHeight="1" spans="1:4">
+    <row r="23" ht="13" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" ht="13" customHeight="1" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="13" customHeight="1" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="13" customHeight="1" spans="1:4">
+    <row r="25" ht="13" customHeight="1" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="26" ht="13" customHeight="1" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="13" customHeight="1" spans="1:1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" ht="13" customHeight="1"/>
-    <row r="28" ht="13" customHeight="1" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="27" ht="13" customHeight="1" spans="1:1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" ht="13" customHeight="1"/>
     <row r="29" ht="13" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="13" customHeight="1"/>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="31" ht="13" customHeight="1"/>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1690,35 +1732,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1729,10 +1768,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1743,24 +1782,24 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1771,10 +1810,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -1785,24 +1824,24 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1813,10 +1852,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1827,10 +1866,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1841,24 +1880,24 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1869,27 +1908,97 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Sound.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>霰弹枪单独装弹</t>
+  </si>
+  <si>
+    <t>reloading0003</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading0003.ogg</t>
+  </si>
+  <si>
+    <t>榴弹发射器装弹</t>
   </si>
   <si>
     <t>reloadBegin0002</t>
@@ -209,6 +218,12 @@
     <t>res://resource/sound/sfx/reloading/Reloading_begin0011.ogg</t>
   </si>
   <si>
+    <t>reloadBegin0012</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_begin0012.ogg</t>
+  </si>
+  <si>
     <t>reloadFinish0002</t>
   </si>
   <si>
@@ -219,6 +234,12 @@
   </si>
   <si>
     <t>res://resource/sound/sfx/reloading/Reloading_finish0003.ogg</t>
+  </si>
+  <si>
+    <t>reloadFinish0004</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/reloading/Reloading_finish0004.ogg</t>
   </si>
   <si>
     <t>beLoaded0001</t>
@@ -1336,14 +1357,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1579,41 +1600,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="13" customHeight="1"/>
-    <row r="19" ht="13" customHeight="1" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="18" ht="13" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="C18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="13" customHeight="1"/>
     <row r="20" ht="13" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13" customHeight="1" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
+      <c r="A21" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1624,168 +1645,173 @@
     </row>
     <row r="22" ht="13" customHeight="1" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="13" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" ht="13" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="13" customHeight="1" spans="1:4">
+    <row r="24" ht="13" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" ht="13" customHeight="1" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="13" customHeight="1" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="13" customHeight="1" spans="1:4">
+    <row r="26" ht="13" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" ht="13" customHeight="1" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" ht="13" customHeight="1" spans="1:1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" ht="13" customHeight="1"/>
-    <row r="29" ht="13" customHeight="1" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="28" ht="13" customHeight="1" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" ht="13" customHeight="1"/>
     <row r="30" ht="13" customHeight="1" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="13" customHeight="1" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" ht="13" customHeight="1"/>
-    <row r="32" spans="1:3">
+    <row r="32" ht="13" customHeight="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" ht="13" customHeight="1"/>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1796,38 +1822,38 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -1838,38 +1864,38 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1880,10 +1906,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1894,111 +1920,139 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>101</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2">
         <v>1.2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2">
         <v>0.7</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>108</v>
+      <c r="D58" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
